--- a/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-004.xlsx
+++ b/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-004.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/6 シナリオ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.nishijima\Downloads\workspace\teamF\総合テスト\6. シナリオテスト（管理者＆ユーザー連携）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D2A984-A6CF-4146-B305-21D79D6AD4CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495FF57-A5F6-4FE4-ADCE-B2CCEC2B2F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="380" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,50 @@
         <a:xfrm>
           <a:off x="1320800" y="11430000"/>
           <a:ext cx="17690394" cy="9564435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>445213</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>124637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9FF98A-78D8-4572-AAF6-0FEC62857D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325217" y="21824674"/>
+          <a:ext cx="18335648" cy="9511593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -557,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K73" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="46" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -573,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1428C-4C04-43B7-90CF-7E868F57DF6A}">
   <dimension ref="C2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScale="38" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
